--- a/public/Pilot Users.xlsx
+++ b/public/Pilot Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/laf/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032CDB7A-136A-A445-921F-4BED872B1DB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8434925-D32B-7845-8986-8C925781325D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="500" windowWidth="24860" windowHeight="20740" xr2:uid="{14EFB9D0-AEA6-1448-9800-D24928032668}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -307,13 +307,124 @@
   </si>
   <si>
     <t>maria.sison@light.org.ph</t>
+  </si>
+  <si>
+    <t>BIANCA.VICENTE</t>
+  </si>
+  <si>
+    <t>MISTY.PAGTALUNAN</t>
+  </si>
+  <si>
+    <t>ALVIN.MORENO</t>
+  </si>
+  <si>
+    <t>EMALYN.LLAGAS</t>
+  </si>
+  <si>
+    <t>JOVIELYN.RAYMUNDO</t>
+  </si>
+  <si>
+    <t>ELIZABETH.BARASIGAN</t>
+  </si>
+  <si>
+    <t>ROXANNE.ROQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEMUEL.SANPEDRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHELLE.CAPERAL </t>
+  </si>
+  <si>
+    <t>MIZHELLE.BUHAT</t>
+  </si>
+  <si>
+    <t>ALVIN.CABANTUGAN</t>
+  </si>
+  <si>
+    <t>JERRY.BALAGAT</t>
+  </si>
+  <si>
+    <t>MALOLOS</t>
+  </si>
+  <si>
+    <t>BIANCA.VICENTE@light.org.ph</t>
+  </si>
+  <si>
+    <t>MISTY.PAGTALUNAN@light.org.ph</t>
+  </si>
+  <si>
+    <t>ALVIN.MORENO@light.org.ph</t>
+  </si>
+  <si>
+    <t>EMALYN.LLAGAS@light.org.ph</t>
+  </si>
+  <si>
+    <t>JOVIELYN.RAYMUNDO@light.org.ph</t>
+  </si>
+  <si>
+    <t>ELIZABETH.BARASIGAN@light.org.ph</t>
+  </si>
+  <si>
+    <t>ROXANNE.ROQUE@light.org.ph</t>
+  </si>
+  <si>
+    <t>LEMUEL.SANPEDRO @light.org.ph</t>
+  </si>
+  <si>
+    <t>MICHELLE.CAPERAL @light.org.ph</t>
+  </si>
+  <si>
+    <t>MIZHELLE.BUHAT@light.org.ph</t>
+  </si>
+  <si>
+    <t>ALVIN.CABANTUGAN@light.org.ph</t>
+  </si>
+  <si>
+    <t>JERRY.BALAGAT@light.org.ph</t>
+  </si>
+  <si>
+    <t>LO1</t>
+  </si>
+  <si>
+    <t>LO2</t>
+  </si>
+  <si>
+    <t>LO3</t>
+  </si>
+  <si>
+    <t>LO4</t>
+  </si>
+  <si>
+    <t>LO5</t>
+  </si>
+  <si>
+    <t>UNIT-OIC</t>
+  </si>
+  <si>
+    <t>ALBERT.BASCO</t>
+  </si>
+  <si>
+    <t>albert.basco@light.org.ph</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>SUZETTE.MADAYAG</t>
+  </si>
+  <si>
+    <t>suzette.madayag@light.org.ph</t>
+  </si>
+  <si>
+    <t>MAIN OFFICE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,6 +456,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -382,10 +501,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -408,8 +528,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B009895-59D4-354B-A067-D2137EB65BC7}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1355,7 +1478,7 @@
       <c r="C37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>235</v>
       </c>
       <c r="E37" s="9" t="s">
@@ -1379,7 +1502,249 @@
         <v>40</v>
       </c>
     </row>
+    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="10">
+        <v>904</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="4">
+        <v>905</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="4">
+        <v>906</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="4">
+        <v>907</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="4">
+        <v>908</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="4">
+        <v>87</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="4">
+        <v>914</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="4">
+        <v>915</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="4">
+        <v>916</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="4">
+        <v>917</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="4">
+        <v>918</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="4">
+        <v>142</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="4">
+        <v>32</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B51" r:id="rId1" xr:uid="{4D9853BD-8D06-1E47-98D0-B476DF3FF32D}"/>
+    <hyperlink ref="B52" r:id="rId2" xr:uid="{9BCC92D7-6F01-054C-83B8-278174F5F566}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/Pilot Users.xlsx
+++ b/public/Pilot Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/laf/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8434925-D32B-7845-8986-8C925781325D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78FB7C-D135-F24A-BB9F-17ED276989A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="500" windowWidth="24860" windowHeight="20740" xr2:uid="{14EFB9D0-AEA6-1448-9800-D24928032668}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -418,13 +418,22 @@
   </si>
   <si>
     <t>MAIN OFFICE</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>lightmfi123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,14 +469,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -477,7 +478,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -500,10 +501,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -529,10 +540,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -845,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B009895-59D4-354B-A067-D2137EB65BC7}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,7 +868,7 @@
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -871,9 +881,14 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -889,8 +904,11 @@
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -906,8 +924,11 @@
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -923,8 +944,11 @@
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -940,8 +964,11 @@
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -957,8 +984,11 @@
       <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -974,8 +1004,11 @@
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -991,8 +1024,11 @@
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1008,8 +1044,11 @@
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1025,8 +1064,11 @@
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1042,8 +1084,11 @@
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1059,8 +1104,11 @@
       <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1124,11 @@
       <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1093,8 +1144,11 @@
       <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1110,8 +1164,11 @@
       <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -1127,8 +1184,11 @@
       <c r="E16" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1144,8 +1204,11 @@
       <c r="E17" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1161,8 +1224,11 @@
       <c r="E18" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
@@ -1178,8 +1244,11 @@
       <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1195,8 +1264,11 @@
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1212,8 +1284,11 @@
       <c r="E21" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
@@ -1229,8 +1304,11 @@
       <c r="E22" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
@@ -1246,8 +1324,11 @@
       <c r="E23" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1263,8 +1344,11 @@
       <c r="E24" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
@@ -1280,8 +1364,11 @@
       <c r="E25" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>41</v>
       </c>
@@ -1297,8 +1384,11 @@
       <c r="E26" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>42</v>
       </c>
@@ -1314,8 +1404,11 @@
       <c r="E27" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
@@ -1331,8 +1424,11 @@
       <c r="E28" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>44</v>
       </c>
@@ -1348,8 +1444,11 @@
       <c r="E29" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
@@ -1365,8 +1464,11 @@
       <c r="E30" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
@@ -1382,8 +1484,11 @@
       <c r="E31" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>47</v>
       </c>
@@ -1399,8 +1504,11 @@
       <c r="E32" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,8 +1524,11 @@
       <c r="E33" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
@@ -1433,8 +1544,11 @@
       <c r="E34" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>50</v>
       </c>
@@ -1450,8 +1564,11 @@
       <c r="E35" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -1467,8 +1584,11 @@
       <c r="E36" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>52</v>
       </c>
@@ -1484,8 +1604,11 @@
       <c r="E37" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>53</v>
       </c>
@@ -1501,8 +1624,11 @@
       <c r="E38" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>94</v>
       </c>
@@ -1518,8 +1644,11 @@
       <c r="E39" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>95</v>
       </c>
@@ -1535,8 +1664,11 @@
       <c r="E40" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>96</v>
       </c>
@@ -1552,8 +1684,11 @@
       <c r="E41" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
@@ -1569,8 +1704,11 @@
       <c r="E42" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>98</v>
       </c>
@@ -1586,8 +1724,11 @@
       <c r="E43" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>99</v>
       </c>
@@ -1603,8 +1744,11 @@
       <c r="E44" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>100</v>
       </c>
@@ -1620,8 +1764,11 @@
       <c r="E45" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>101</v>
       </c>
@@ -1637,8 +1784,11 @@
       <c r="E46" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>102</v>
       </c>
@@ -1654,8 +1804,11 @@
       <c r="E47" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>103</v>
       </c>
@@ -1671,8 +1824,11 @@
       <c r="E48" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>104</v>
       </c>
@@ -1688,8 +1844,11 @@
       <c r="E49" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>105</v>
       </c>
@@ -1705,8 +1864,11 @@
       <c r="E50" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>125</v>
       </c>
@@ -1722,12 +1884,15 @@
       <c r="E51" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -1738,6 +1903,9 @@
       </c>
       <c r="E52" s="10" t="s">
         <v>127</v>
+      </c>
+      <c r="F52" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/public/Pilot Users.xlsx
+++ b/public/Pilot Users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/laf/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78FB7C-D135-F24A-BB9F-17ED276989A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD6E65-CDC1-8F40-AE38-88BAF810631B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="500" windowWidth="24860" windowHeight="20740" xr2:uid="{14EFB9D0-AEA6-1448-9800-D24928032668}"/>
   </bookViews>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B009895-59D4-354B-A067-D2137EB65BC7}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
